--- a/dataset/fitness.xlsx
+++ b/dataset/fitness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6979DF3-42C6-4C43-AA0C-0C694F0DABAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38692497-A6DF-4EBA-8749-5AB398651786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07B94767-5DC1-4B3B-9FBC-0F9B4C71E218}"/>
   </bookViews>
@@ -31,18 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>cluster 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>percFitTraces</t>
-  </si>
-  <si>
-    <t>averageFitness</t>
-  </si>
-  <si>
     <t>log1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,33 +48,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>log3</t>
+  </si>
+  <si>
+    <t>log3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4</t>
+  </si>
+  <si>
+    <t>no time dependency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with time dependency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cluster 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log3</t>
-  </si>
-  <si>
-    <t>log3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log4</t>
-  </si>
-  <si>
-    <t>no time dependency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>with time dependency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>running time(seconds)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,204 +451,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72D3A8B-AC97-456B-8DE4-BA101B779A00}">
-  <dimension ref="B6:I24"/>
+  <dimension ref="B6:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="6" max="7" width="17.5546875" customWidth="1"/>
+    <col min="6" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G7">
+        <f>F7*2</f>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.99995999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="G8">
+        <f>F8*2</f>
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.99624999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G24" si="0">F9*2</f>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.99995999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.375</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J10">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="F11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.99995000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>27.808757924395302</v>
-      </c>
-      <c r="G10">
-        <v>0.78646885027754998</v>
-      </c>
-      <c r="I10">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.99995000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.375</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J13">
+        <v>0.99997999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5.5550000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.1111</v>
+      </c>
+      <c r="J14">
+        <v>0.99995000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.99995999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>27.7993814874919</v>
-      </c>
-      <c r="G13">
-        <v>0.78550067873043405</v>
-      </c>
-      <c r="I13">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>36.024035098874499</v>
-      </c>
-      <c r="G14">
-        <v>0.95428698598424999</v>
-      </c>
-      <c r="I14">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="J16">
+        <v>0.99622999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="F17">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.99995000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.375</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J18">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.99995999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="F20">
+        <v>0.16666</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.33332000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>9.9989999999999996E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.19997999999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.99997000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.99997000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>0.64318181818181797</v>
-      </c>
-      <c r="I20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>29.5698761994127</v>
-      </c>
-      <c r="G22">
-        <v>0.93619550531517304</v>
-      </c>
-      <c r="I22">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.1666</v>
       </c>
       <c r="G24">
-        <v>0.68257575757575695</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0.3332</v>
+      </c>
+      <c r="J24">
+        <v>0.58930000000000005</v>
       </c>
     </row>
   </sheetData>
